--- a/document/大厅功能整理.xlsx
+++ b/document/大厅功能整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\FishProject\Common\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F00191-4E64-4267-9183-DC6B248BF9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE86831B-ACF3-41D6-AEB2-5C15B15DB1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="35040" yWindow="2820" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>登录</t>
   </si>
@@ -289,6 +289,30 @@
   </si>
   <si>
     <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤回赠送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件撤回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +345,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,14 +375,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,23 +688,23 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>8</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
@@ -671,11 +713,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
@@ -684,11 +726,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -697,13 +739,13 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
@@ -712,11 +754,11 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
@@ -725,11 +767,11 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
@@ -738,11 +780,11 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
@@ -751,11 +793,11 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -764,33 +806,33 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -799,13 +841,13 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>7</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
@@ -817,11 +859,11 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
@@ -830,23 +872,23 @@
       <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>3</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
@@ -855,31 +897,31 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
@@ -888,11 +930,11 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
@@ -901,11 +943,11 @@
       <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
@@ -914,13 +956,13 @@
       <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
@@ -929,41 +971,41 @@
       <c r="C28" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
@@ -982,33 +1024,33 @@
       <c r="B37" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>4</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
@@ -1020,13 +1062,13 @@
       <c r="C42" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>6</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
@@ -1035,11 +1077,11 @@
       <c r="C43" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
@@ -1059,14 +1101,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D42:H43"/>
+    <mergeCell ref="D16:H17"/>
     <mergeCell ref="D1:H4"/>
     <mergeCell ref="D27:H31"/>
     <mergeCell ref="D12:H14"/>
     <mergeCell ref="D19:H25"/>
     <mergeCell ref="D37:H39"/>
     <mergeCell ref="D6:H10"/>
-    <mergeCell ref="D42:H43"/>
-    <mergeCell ref="D16:H17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1075,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA05153-3F2E-49D4-8010-96FCD1FDBB40}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1092,22 +1134,22 @@
       <c r="A1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1115,105 +1157,135 @@
       <c r="A6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>77</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C17" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C20" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D22" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>79</v>
       </c>
     </row>
